--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -26,12 +26,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BEBEBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B4EEB4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0FFF0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +66,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,134 +522,404 @@
           <t>赠送/直购</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr"/>
-      <c r="P1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>15935502580</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>王6</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>15935502580</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>赵六</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>15935702580</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>第一批</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>老七</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>13935502580</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>小八</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>14935502580</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="E5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>第一批</t>
+        </is>
+      </c>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>第二批</t>
+        </is>
+      </c>
+      <c r="J6" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="K7" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="I8" t="inlineStr">
         <is>
-          <t>2023-11-26</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
+          <t>第四批</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="I9" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
-        </is>
+          <t>第五批</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="I10" t="inlineStr">
         <is>
+          <t>第六批</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>小八</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>14935502580</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>第一批</t>
+        </is>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
         <is>
           <t>2023-11-28</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
+      <c r="M11" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>不错</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
-        </is>
+          <t>第二批</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
-        </is>
+          <t>第三批</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
-        </is>
+          <t>第四批</t>
+        </is>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="I15" t="inlineStr">
         <is>
+          <t>第五批</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>第六批</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
           <t>2024-03-11</t>
         </is>
       </c>
+      <c r="K16" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A2"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="D4"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="H5:H10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="H11:H16"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -45,12 +45,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B4EEB4"/>
+        <fgColor rgb="00F0FFF0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0FFF0"/>
+        <fgColor rgb="00B4EEB4"/>
       </patternFill>
     </fill>
   </fills>
@@ -71,12 +71,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,11 +530,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>王6</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
@@ -551,62 +551,87 @@
       <c r="F2" s="1" t="n"/>
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>王6</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>15935502580</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="A3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>赵六</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>15935702580</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>第一批</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>2023-11-26</t>
         </is>
       </c>
-      <c r="M3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>没有</t>
-        </is>
-      </c>
+      <c r="K3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>赵六</t>
+          <t>老七</t>
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>15935702580</t>
+          <t>13935502580</t>
         </is>
       </c>
       <c r="E4" s="1" t="n">
@@ -615,270 +640,1069 @@
       <c r="F4" s="1" t="n"/>
       <c r="G4" s="1" t="n"/>
       <c r="H4" s="1" t="n"/>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>第一批</t>
         </is>
       </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>2023-11-26</t>
-        </is>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="M4" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5" t="inlineStr"/>
+      <c r="K4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>老七</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>13935502580</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>第二批</t>
+        </is>
+      </c>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+      <c r="J6" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-28</t>
+        </is>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>第四批</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-18</t>
+        </is>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>第五批</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>第六批</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="n"/>
+      <c r="K9" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>小八</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>14935502580</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="4" t="inlineStr">
         <is>
           <t>第一批</t>
         </is>
       </c>
-      <c r="J5" s="6" t="inlineStr">
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="K5" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="I6" t="inlineStr">
+      <c r="K10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>不错</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="I11" s="4" t="inlineStr">
         <is>
           <t>第二批</t>
         </is>
       </c>
-      <c r="J6" s="6" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="I7" t="inlineStr">
+      <c r="J11" s="4" t="n"/>
+      <c r="K11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="I12" s="4" t="inlineStr">
         <is>
           <t>第三批</t>
         </is>
       </c>
-      <c r="J7" s="6" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
-      <c r="K7" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="I8" t="inlineStr">
+      <c r="J12" s="4" t="n"/>
+      <c r="K12" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="I13" s="4" t="inlineStr">
         <is>
           <t>第四批</t>
         </is>
       </c>
-      <c r="J8" s="6" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="I9" t="inlineStr">
+      <c r="J13" s="4" t="n"/>
+      <c r="K13" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t>第五批</t>
         </is>
       </c>
-      <c r="J9" s="6" t="inlineStr">
-        <is>
-          <t>2024-02-19</t>
-        </is>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="I10" t="inlineStr">
+      <c r="J14" s="4" t="n"/>
+      <c r="K14" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="I15" s="4" t="inlineStr">
         <is>
           <t>第六批</t>
         </is>
       </c>
-      <c r="J10" s="6" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="K10" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>小八</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="n"/>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>14935502580</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="n"/>
-      <c r="G11" s="1" t="n"/>
-      <c r="H11" s="1" t="n"/>
-      <c r="I11" t="inlineStr">
+      <c r="J15" s="4" t="n"/>
+      <c r="K15" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>九久</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>19909992000</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="6" t="inlineStr">
         <is>
           <t>第一批</t>
         </is>
       </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-28</t>
-        </is>
-      </c>
-      <c r="M11" s="5" t="n">
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>第二批</t>
+        </is>
+      </c>
+      <c r="J17" s="6" t="n"/>
+      <c r="K17" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+      <c r="J18" s="6" t="n"/>
+      <c r="K18" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>第四批</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="n"/>
+      <c r="K19" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>第五批</t>
+        </is>
+      </c>
+      <c r="J20" s="6" t="n"/>
+      <c r="K20" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>第六批</t>
+        </is>
+      </c>
+      <c r="J21" s="6" t="n"/>
+      <c r="K21" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>15812348765</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>第一批</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="M22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="N11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="N22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>不错</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="I12" t="inlineStr">
+    <row r="23">
+      <c r="I23" s="4" t="inlineStr">
         <is>
           <t>第二批</t>
         </is>
       </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="I13" t="inlineStr">
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>2023-12-24</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="I24" s="4" t="inlineStr">
         <is>
           <t>第三批</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
-      <c r="K13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="I14" t="inlineStr">
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>2024-01-17</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" s="4" t="inlineStr">
         <is>
           <t>第四批</t>
         </is>
       </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>2024-01-29</t>
-        </is>
-      </c>
-      <c r="K14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="I15" t="inlineStr">
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="I26" s="4" t="inlineStr">
         <is>
           <t>第五批</t>
         </is>
       </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>2024-02-19</t>
-        </is>
-      </c>
-      <c r="K15" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="I16" t="inlineStr">
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="K26" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="I27" s="4" t="inlineStr">
         <is>
           <t>第六批</t>
         </is>
       </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>2024-03-11</t>
-        </is>
-      </c>
-      <c r="K16" s="4" t="n">
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K27" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>15812348765</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n"/>
+      <c r="I28" s="6" t="inlineStr">
+        <is>
+          <t>第一批</t>
+        </is>
+      </c>
+      <c r="J28" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="K28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>你好李四</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="I29" s="6" t="inlineStr">
+        <is>
+          <t>第二批</t>
+        </is>
+      </c>
+      <c r="J29" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="K29" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="I30" s="6" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+      <c r="J30" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="K30" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="I31" s="6" t="inlineStr">
+        <is>
+          <t>第四批</t>
+        </is>
+      </c>
+      <c r="J31" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="K31" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="I32" s="6" t="inlineStr">
+        <is>
+          <t>第五批</t>
+        </is>
+      </c>
+      <c r="J32" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="K32" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="I33" s="6" t="inlineStr">
+        <is>
+          <t>第六批</t>
+        </is>
+      </c>
+      <c r="J33" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="K33" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>咋</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>11111111</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="n"/>
+      <c r="G34" s="3" t="n"/>
+      <c r="H34" s="3" t="n"/>
+      <c r="I34" s="4" t="inlineStr">
+        <is>
+          <t>第一批</t>
+        </is>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="K34" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="I35" s="4" t="inlineStr">
+        <is>
+          <t>第二批</t>
+        </is>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t>2023-12-24</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="I36" s="4" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t>2024-01-14</t>
+        </is>
+      </c>
+      <c r="K36" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="I37" s="4" t="inlineStr">
+        <is>
+          <t>第四批</t>
+        </is>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t>2024-02-04</t>
+        </is>
+      </c>
+      <c r="K37" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="I38" s="4" t="inlineStr">
+        <is>
+          <t>第五批</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>2024-02-25</t>
+        </is>
+      </c>
+      <c r="K38" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>第六批</t>
+        </is>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>啊啊啊</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>11111111</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
+      <c r="H40" s="1" t="n"/>
+      <c r="I40" s="6" t="inlineStr">
+        <is>
+          <t>第一批</t>
+        </is>
+      </c>
+      <c r="J40" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="K40" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="I41" s="6" t="inlineStr">
+        <is>
+          <t>第二批</t>
+        </is>
+      </c>
+      <c r="J41" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-24</t>
+        </is>
+      </c>
+      <c r="K41" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="I42" s="6" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+      <c r="J42" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-14</t>
+        </is>
+      </c>
+      <c r="K42" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="I43" s="6" t="inlineStr">
+        <is>
+          <t>第四批</t>
+        </is>
+      </c>
+      <c r="J43" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-04</t>
+        </is>
+      </c>
+      <c r="K43" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="I44" s="6" t="inlineStr">
+        <is>
+          <t>第五批</t>
+        </is>
+      </c>
+      <c r="J44" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-25</t>
+        </is>
+      </c>
+      <c r="K44" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="I45" s="6" t="inlineStr">
+        <is>
+          <t>第六批</t>
+        </is>
+      </c>
+      <c r="J45" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="K45" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>11111111</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
+      <c r="H46" s="3" t="n"/>
+      <c r="I46" s="4" t="inlineStr">
+        <is>
+          <t>第一批</t>
+        </is>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="K46" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="I47" s="4" t="inlineStr">
+        <is>
+          <t>第二批</t>
+        </is>
+      </c>
+      <c r="J47" s="4" t="inlineStr">
+        <is>
+          <t>2023-12-24</t>
+        </is>
+      </c>
+      <c r="K47" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" s="4" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+      <c r="J48" s="4" t="inlineStr">
+        <is>
+          <t>2024-01-14</t>
+        </is>
+      </c>
+      <c r="K48" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" s="4" t="inlineStr">
+        <is>
+          <t>第四批</t>
+        </is>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t>2024-02-04</t>
+        </is>
+      </c>
+      <c r="K49" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" s="4" t="inlineStr">
+        <is>
+          <t>第五批</t>
+        </is>
+      </c>
+      <c r="J50" s="4" t="inlineStr">
+        <is>
+          <t>2024-02-25</t>
+        </is>
+      </c>
+      <c r="K50" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" s="4" t="inlineStr">
+        <is>
+          <t>第六批</t>
+        </is>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="K51" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>测速</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>11111111</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="n"/>
+      <c r="G52" s="1" t="n"/>
+      <c r="H52" s="1" t="n"/>
+      <c r="I52" s="6" t="inlineStr">
+        <is>
+          <t>第一批</t>
+        </is>
+      </c>
+      <c r="J52" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-24</t>
+        </is>
+      </c>
+      <c r="K52" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="I53" s="6" t="inlineStr">
+        <is>
+          <t>第二批</t>
+        </is>
+      </c>
+      <c r="J53" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-14</t>
+        </is>
+      </c>
+      <c r="K53" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="I54" s="6" t="inlineStr">
+        <is>
+          <t>第三批</t>
+        </is>
+      </c>
+      <c r="J54" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-04</t>
+        </is>
+      </c>
+      <c r="K54" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="I55" s="6" t="inlineStr">
+        <is>
+          <t>第四批</t>
+        </is>
+      </c>
+      <c r="J55" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-25</t>
+        </is>
+      </c>
+      <c r="K55" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="I56" s="6" t="inlineStr">
+        <is>
+          <t>第五批</t>
+        </is>
+      </c>
+      <c r="J56" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="K56" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="I57" s="6" t="inlineStr">
+        <is>
+          <t>第六批</t>
+        </is>
+      </c>
+      <c r="J57" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="K57" s="6" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="88">
     <mergeCell ref="A2"/>
     <mergeCell ref="B2"/>
     <mergeCell ref="C2"/>
@@ -895,30 +1719,78 @@
     <mergeCell ref="F3"/>
     <mergeCell ref="G3"/>
     <mergeCell ref="H3"/>
-    <mergeCell ref="A4"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="D4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="G4"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="F5:F10"/>
-    <mergeCell ref="G5:G10"/>
-    <mergeCell ref="H5:H10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="G34:G39"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="F46:F51"/>
+    <mergeCell ref="G46:G51"/>
+    <mergeCell ref="H46:H51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="G52:G57"/>
+    <mergeCell ref="H52:H57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
